--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-001 Legalizacion Anticipo.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-001 Legalizacion Anticipo.xlsx
@@ -130,7 +130,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miVFsIaeyjq9+kvXw1hZ4g5JLDjNQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miRXKFKb2M1fzt2YAl2jwtPxX2mRg=="/>
     </ext>
   </extLst>
 </comments>
@@ -1221,7 +1221,7 @@
     <xdr:ext cx="676275" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1249,7 +1249,7 @@
     <xdr:ext cx="1076325" cy="752475"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1277,7 +1277,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1896,7 +1896,7 @@
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" s="67" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
     </row>
-    <row r="21" ht="20.25" customHeight="1">
+    <row r="21" ht="20.25" hidden="1" customHeight="1">
       <c r="A21" s="74" t="s">
         <v>40</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" ht="13.5" hidden="1" customHeight="1">
       <c r="A22" s="74" t="s">
         <v>46</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" ht="13.5" hidden="1" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -29396,22 +29396,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A18:E19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A18:E19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" sqref="F11:F17">
@@ -29426,7 +29426,7 @@
   </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.1968503937007874" footer="0.0" header="0.0" left="0.1968503937007874" right="0.1968503937007874" top="0.1968503937007874"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
